--- a/Proyecto Interno/working-papers/working-paper-aecm/output/ts-ecm/261225_table5_ecm_medellin.xlsx
+++ b/Proyecto Interno/working-papers/working-paper-aecm/output/ts-ecm/261225_table5_ecm_medellin.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,7 +458,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CEBOLLA CABEZONA / Cebolla cabezona blanca</t>
+          <t>PAPA / Papa capira</t>
         </is>
       </c>
     </row>
@@ -469,13 +469,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.1203457403986856</v>
+        <v>0.1524623805441301</v>
       </c>
       <c r="D8">
-        <v>0.04765033215934998</v>
+        <v>0.03880598889808912</v>
       </c>
       <c r="E8">
-        <v>0.01505864905284312</v>
+        <v>0.0002845075578835631</v>
       </c>
     </row>
     <row r="9">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0.2132377152815458</v>
+        <v>-0.4447105126577739</v>
       </c>
       <c r="D9">
-        <v>0.0661466550681637</v>
+        <v>0.08570078882827613</v>
       </c>
       <c r="E9">
-        <v>0.002329060289412489</v>
+        <v>4.647866068268769E-06</v>
       </c>
     </row>
     <row r="10">
@@ -501,13 +501,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.4627671196041717</v>
+        <v>0.3041603550639451</v>
       </c>
       <c r="D10">
-        <v>0.1068082266406992</v>
+        <v>0.1085969541752875</v>
       </c>
       <c r="E10">
-        <v>7.919045291235417E-05</v>
+        <v>0.007430180635869131</v>
       </c>
     </row>
     <row r="11">
@@ -517,19 +517,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.1790315686685815</v>
+        <v>-0.3303415740632361</v>
       </c>
       <c r="D11">
-        <v>0.1188098042944093</v>
+        <v>0.220456298275004</v>
       </c>
       <c r="E11">
-        <v>0.1386798613746571</v>
+        <v>0.140849444235285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PAPA / Papa capira</t>
+          <t>PLÁTANO / Plátano hartón verde</t>
         </is>
       </c>
     </row>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.1524623805441301</v>
+        <v>0.006142034755174186</v>
       </c>
       <c r="D13">
-        <v>0.03880598889808912</v>
+        <v>0.02417117385174203</v>
       </c>
       <c r="E13">
-        <v>0.0002845075578835631</v>
+        <v>0.8005462960847026</v>
       </c>
     </row>
     <row r="14">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>-0.4447105126577739</v>
+        <v>-0.1026900212561163</v>
       </c>
       <c r="D14">
-        <v>0.08570078882827613</v>
+        <v>0.05118280453473217</v>
       </c>
       <c r="E14">
-        <v>4.647866068268769E-06</v>
+        <v>0.05072019967773109</v>
       </c>
     </row>
     <row r="15">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.3041603550639451</v>
+        <v>0.128162328825697</v>
       </c>
       <c r="D15">
-        <v>0.1085969541752875</v>
+        <v>0.1315426138090522</v>
       </c>
       <c r="E15">
-        <v>0.007430180635869131</v>
+        <v>0.3350021670894877</v>
       </c>
     </row>
     <row r="16">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>-0.3303415740632361</v>
+        <v>0.2369336360601783</v>
       </c>
       <c r="D16">
-        <v>0.220456298275004</v>
+        <v>0.1336451599012277</v>
       </c>
       <c r="E16">
-        <v>0.140849444235285</v>
+        <v>0.08287424047514069</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PAPA / Papa nevada</t>
+          <t>YUCA / Yuca ICA</t>
         </is>
       </c>
     </row>
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.1483936961994393</v>
+        <v>0.02909159625872429</v>
       </c>
       <c r="D18">
-        <v>0.04289380526583998</v>
+        <v>0.01902909503926538</v>
       </c>
       <c r="E18">
-        <v>0.001177601644792985</v>
+        <v>0.1331631652154289</v>
       </c>
     </row>
     <row r="19">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>-0.3121635511203141</v>
+        <v>-0.173734094186992</v>
       </c>
       <c r="D19">
-        <v>0.08205966348699259</v>
+        <v>0.06424613021002216</v>
       </c>
       <c r="E19">
-        <v>0.0004181486726486229</v>
+        <v>0.009565632231278652</v>
       </c>
     </row>
     <row r="20">
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.3917461860572991</v>
+        <v>0.2168051687701918</v>
       </c>
       <c r="D20">
-        <v>0.1196480120150493</v>
+        <v>0.1246584788068557</v>
       </c>
       <c r="E20">
-        <v>0.002016926687793996</v>
+        <v>0.08868953894792538</v>
       </c>
     </row>
     <row r="21">
@@ -659,510 +659,13 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.08107145858266496</v>
+        <v>0.1433949986352186</v>
       </c>
       <c r="D21">
-        <v>0.1569637242155593</v>
+        <v>0.07251681270481884</v>
       </c>
       <c r="E21">
-        <v>0.6079808793048864</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>PAPA / Papa R-12 negra</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>0.1498211880093377</v>
-      </c>
-      <c r="D23">
-        <v>0.04004580161321832</v>
-      </c>
-      <c r="E23">
-        <v>0.0005067054134347784</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>-0.3901563806719593</v>
-      </c>
-      <c r="D24">
-        <v>0.07734152743664625</v>
-      </c>
-      <c r="E24">
-        <v>7.567458635531633E-06</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>0.3392508943296758</v>
-      </c>
-      <c r="D25">
-        <v>0.1093107650348583</v>
-      </c>
-      <c r="E25">
-        <v>0.003266393421645984</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>-0.2454650058544615</v>
-      </c>
-      <c r="D26">
-        <v>0.1723099503528901</v>
-      </c>
-      <c r="E26">
-        <v>0.1610351955220319</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>PLÁTANO / Plátano guineo</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>-0.000410132545337476</v>
-      </c>
-      <c r="D28">
-        <v>0.0261869729769265</v>
-      </c>
-      <c r="E28">
-        <v>0.9875720143186449</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>-0.06898204477393717</v>
-      </c>
-      <c r="D29">
-        <v>0.04872582790014496</v>
-      </c>
-      <c r="E29">
-        <v>0.1635934594424378</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>0.2260347307603255</v>
-      </c>
-      <c r="D30">
-        <v>0.141870340820105</v>
-      </c>
-      <c r="E30">
-        <v>0.1179535319516</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>0.08533107425342044</v>
-      </c>
-      <c r="D31">
-        <v>0.1090870001268724</v>
-      </c>
-      <c r="E31">
-        <v>0.4380878837445205</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>PLÁTANO / Plátano hartón maduro</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>0.006457930943333644</v>
-      </c>
-      <c r="D33">
-        <v>0.02486236953346354</v>
-      </c>
-      <c r="E33">
-        <v>0.7962178349217873</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C34">
-        <v>-0.08838183322513875</v>
-      </c>
-      <c r="D34">
-        <v>0.04899396831284474</v>
-      </c>
-      <c r="E34">
-        <v>0.07779236824468388</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>0.1542506023692919</v>
-      </c>
-      <c r="D35">
-        <v>0.1345274570507242</v>
-      </c>
-      <c r="E35">
-        <v>0.2574720236969977</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C36">
-        <v>0.1958449314031516</v>
-      </c>
-      <c r="D36">
-        <v>0.1213413081978449</v>
-      </c>
-      <c r="E36">
-        <v>0.1133671697820378</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PLÁTANO / Plátano hartón verde</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>0.006142034755174186</v>
-      </c>
-      <c r="D38">
-        <v>0.02417117385174203</v>
-      </c>
-      <c r="E38">
-        <v>0.8005462960847026</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C39">
-        <v>-0.1026900212561163</v>
-      </c>
-      <c r="D39">
-        <v>0.05118280453473217</v>
-      </c>
-      <c r="E39">
-        <v>0.05072019967773109</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C40">
-        <v>0.128162328825697</v>
-      </c>
-      <c r="D40">
-        <v>0.1315426138090522</v>
-      </c>
-      <c r="E40">
-        <v>0.3350021670894877</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C41">
-        <v>0.2369336360601783</v>
-      </c>
-      <c r="D41">
-        <v>0.1336451599012277</v>
-      </c>
-      <c r="E41">
-        <v>0.08287424047514069</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>TOMATE / Tomate larga vida</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C43">
-        <v>0.08481018347708096</v>
-      </c>
-      <c r="D43">
-        <v>0.0717963085315111</v>
-      </c>
-      <c r="E43">
-        <v>0.2435704309481833</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C44">
-        <v>-0.5039065512240368</v>
-      </c>
-      <c r="D44">
-        <v>0.1514677414621483</v>
-      </c>
-      <c r="E44">
-        <v>0.001733549045779839</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>0.1172075514293007</v>
-      </c>
-      <c r="D45">
-        <v>0.1482995042134114</v>
-      </c>
-      <c r="E45">
-        <v>0.433382905370994</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C46">
-        <v>0.6453862462464069</v>
-      </c>
-      <c r="D46">
-        <v>0.4493978568152755</v>
-      </c>
-      <c r="E46">
-        <v>0.1577362838617277</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>YUCA / Yuca ICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C48">
-        <v>0.02909159625872429</v>
-      </c>
-      <c r="D48">
-        <v>0.01902909503926538</v>
-      </c>
-      <c r="E48">
-        <v>0.1331631652154289</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C49">
-        <v>-0.173734094186992</v>
-      </c>
-      <c r="D49">
-        <v>0.06424613021002216</v>
-      </c>
-      <c r="E49">
-        <v>0.009565632231278652</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C50">
-        <v>0.2168051687701918</v>
-      </c>
-      <c r="D50">
-        <v>0.1246584788068557</v>
-      </c>
-      <c r="E50">
-        <v>0.08868953894792538</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C51">
-        <v>0.1433949986352186</v>
-      </c>
-      <c r="D51">
-        <v>0.07251681270481884</v>
-      </c>
-      <c r="E51">
         <v>0.05400630606878219</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ZANAHORIA / Zanahoria larga vida</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C53">
-        <v>0.03136935637855932</v>
-      </c>
-      <c r="D53">
-        <v>0.06520876737108516</v>
-      </c>
-      <c r="E53">
-        <v>0.6327539649007914</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C54">
-        <v>-0.361735795265555</v>
-      </c>
-      <c r="D54">
-        <v>0.1044319404135293</v>
-      </c>
-      <c r="E54">
-        <v>0.00116286323572724</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C55">
-        <v>0.3660576198209455</v>
-      </c>
-      <c r="D55">
-        <v>0.1364190324800124</v>
-      </c>
-      <c r="E55">
-        <v>0.01009538655513115</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C56">
-        <v>-0.2403376237213126</v>
-      </c>
-      <c r="D56">
-        <v>0.2804220378339593</v>
-      </c>
-      <c r="E56">
-        <v>0.3958566539656893</v>
       </c>
     </row>
   </sheetData>
